--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,32 +624,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AANDAFWY</t>
+          <t>AAWYWAWY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03459484815894032</v>
+        <v>0.03930235483575135</v>
       </c>
       <c r="C6" t="n">
-        <v>957.0110000000001</v>
+        <v>1116.246</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.88330000000001</v>
+        <v>2.920200000000012</v>
       </c>
       <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
         <v>14</v>
       </c>
-      <c r="F6" t="n">
-        <v>13</v>
-      </c>
       <c r="G6" t="n">
-        <v>383.4299999999999</v>
+        <v>354.85</v>
       </c>
       <c r="H6" t="n">
         <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -658,136 +658,442 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AANDAKWY</t>
+          <t>AAFYWAWY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03389962598427188</v>
+        <v>0.03927938638405279</v>
       </c>
       <c r="C7" t="n">
-        <v>938.0089999999998</v>
+        <v>1077.209</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.997000000000011</v>
+        <v>2.438900000000012</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>409.4499999999999</v>
+        <v>339.0599999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AARDAMWY</t>
+          <t>AAYYWAWY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02128601233185918</v>
+        <v>0.03907783141709264</v>
       </c>
       <c r="C8" t="n">
-        <v>983.1189999999999</v>
+        <v>1093.208</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.985030000000011</v>
+        <v>2.144500000000011</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>402.24</v>
+        <v>359.29</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AARDAKWY</t>
+          <t>AAYYWFWY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01925189455974945</v>
+        <v>0.03517549473614683</v>
       </c>
       <c r="C9" t="n">
-        <v>980.0939999999997</v>
+        <v>1169.306</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.609130000000012</v>
+        <v>3.367300000000013</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>428.2599999999999</v>
+        <v>359.29</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AARDAFWY</t>
+          <t>AAFYWFWY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0183784198827538</v>
+        <v>0.03510375153160104</v>
       </c>
       <c r="C10" t="n">
-        <v>999.096</v>
+        <v>1153.307</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.495430000000014</v>
+        <v>3.661700000000014</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>402.24</v>
+        <v>339.0599999999999</v>
       </c>
       <c r="H10" t="n">
         <v>27</v>
       </c>
       <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AANDAFWY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03459484815894032</v>
+      </c>
+      <c r="C11" t="n">
+        <v>957.0110000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.88330000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>383.4299999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AAWYWFWY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03455548051922706</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1192.344</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.143000000000014</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>354.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AANDAKWY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.03389962598427188</v>
+      </c>
+      <c r="C13" t="n">
+        <v>938.0089999999998</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2.997000000000011</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>409.4499999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>27</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AAFYWKWY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.03003828805443857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1134.305</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.548000000000013</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>365.08</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AAWYWKWY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03003599521624632</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1173.342</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.029300000000014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>380.8699999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AAYYWKWY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02993832155833644</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1150.304</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.253600000000012</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>385.3099999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AARDAMWY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.02128601233185918</v>
+      </c>
+      <c r="C17" t="n">
+        <v>983.1189999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.985030000000011</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>402.24</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AARDAKWY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01925189455974945</v>
+      </c>
+      <c r="C18" t="n">
+        <v>980.0939999999997</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.609130000000012</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>428.2599999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AARDAFWY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0183784198827538</v>
+      </c>
+      <c r="C19" t="n">
+        <v>999.096</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.495430000000014</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>402.24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
     </row>
